--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t xml:space="preserve">Multivalued</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unique</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -139,7 +142,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -173,6 +176,14 @@
     <font>
       <b val="true"/>
       <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -227,7 +238,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -264,12 +275,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -289,13 +308,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K4" activeCellId="0" sqref="K4:K7"/>
+      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12:L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -379,85 +398,97 @@
       <c r="K4" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="L4" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -496,16 +527,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>12</v>
@@ -548,85 +579,97 @@
       <c r="K12" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="L12" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>26</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -92,6 +92,12 @@
   </si>
   <si>
     <t xml:space="preserve">Unique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -308,13 +314,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L12" activeCellId="0" sqref="L12:L15"/>
+      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -401,10 +407,16 @@
       <c r="L4" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="M4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>12</v>
@@ -413,16 +425,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K5" s="11" t="s">
         <v>12</v>
@@ -433,7 +445,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>12</v>
@@ -442,16 +454,16 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>12</v>
@@ -462,7 +474,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>12</v>
@@ -471,19 +483,19 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K7" s="11" t="s">
         <v>12</v>
@@ -527,16 +539,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>12</v>
@@ -582,10 +594,16 @@
       <c r="L12" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="M12" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>12</v>
@@ -594,16 +612,16 @@
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K13" s="11" t="s">
         <v>12</v>
@@ -614,7 +632,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>12</v>
@@ -623,16 +641,16 @@
         <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>12</v>
@@ -643,7 +661,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>12</v>
@@ -652,19 +670,19 @@
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>12</v>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -98,6 +98,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -148,7 +151,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -190,6 +193,14 @@
     <font>
       <b val="true"/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -244,7 +255,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -285,11 +296,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -314,13 +329,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4:N4"/>
+      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5390625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -413,94 +428,106 @@
       <c r="N4" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="O4" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="12" t="s">
+      <c r="K5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>12</v>
       </c>
     </row>
@@ -539,16 +566,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>12</v>
@@ -600,94 +627,106 @@
       <c r="N12" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="O12" s="10" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="12" t="s">
+      <c r="K13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="H14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="H15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="12" t="s">
         <v>12</v>
       </c>
     </row>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -98,9 +98,6 @@
   </si>
   <si>
     <t xml:space="preserve">Pattern Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internal Assignment</t>
   </si>
   <si>
     <t xml:space="preserve">$NAME</t>
@@ -332,10 +329,10 @@
   <dimension ref="A1:O22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O12" activeCellId="0" sqref="O12:O15"/>
+      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -428,13 +425,11 @@
       <c r="N4" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="O4" s="10"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>12</v>
@@ -443,16 +438,16 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="12" t="s">
         <v>12</v>
@@ -460,31 +455,29 @@
       <c r="L5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O5" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K6" s="12" t="s">
         <v>12</v>
@@ -492,13 +485,11 @@
       <c r="L6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O6" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="O6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>12</v>
@@ -507,31 +498,30 @@
         <v>10</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="K7" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="12" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="O7" s="12"/>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,16 +556,16 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>38</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F11" s="6" t="s">
         <v>12</v>
@@ -627,13 +617,11 @@
       <c r="N12" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="O12" s="10"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>12</v>
@@ -642,16 +630,16 @@
         <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="F13" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="H13" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="12" t="s">
         <v>12</v>
@@ -659,31 +647,29 @@
       <c r="L13" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O13" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="O13" s="12"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>32</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>12</v>
@@ -691,13 +677,11 @@
       <c r="L14" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O14" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="O14" s="12"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>12</v>
@@ -706,29 +690,27 @@
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="G15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="K15" s="12" t="s">
         <v>12</v>
       </c>
       <c r="L15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O15" s="12" t="s">
-        <v>12</v>
-      </c>
+      <c r="O15" s="12"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-type-with-omitted-vocabulary-property.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="41">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Code</t>
   </si>
   <si>
+    <t xml:space="preserve">Internal</t>
+  </si>
+  <si>
     <t xml:space="preserve">Description</t>
   </si>
   <si>
@@ -49,6 +52,9 @@
     <t xml:space="preserve">ANTIBODY</t>
   </si>
   <si>
+    <t xml:space="preserve">FALSE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Antibody</t>
   </si>
   <si>
@@ -58,9 +64,6 @@
     <t xml:space="preserve">ANT</t>
   </si>
   <si>
-    <t xml:space="preserve">FALSE</t>
-  </si>
-  <si>
     <t xml:space="preserve">2023-03-11 17:23:44</t>
   </si>
   <si>
@@ -100,7 +103,10 @@
     <t xml:space="preserve">Pattern Type</t>
   </si>
   <si>
-    <t xml:space="preserve">$NAME</t>
+    <t xml:space="preserve">Internal Assignment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAME</t>
   </si>
   <si>
     <t xml:space="preserve">General info</t>
@@ -112,7 +118,7 @@
     <t xml:space="preserve">VARCHAR</t>
   </si>
   <si>
-    <t xml:space="preserve">$BARCODE</t>
+    <t xml:space="preserve">BARCODE</t>
   </si>
   <si>
     <t xml:space="preserve">Custom Barcode</t>
@@ -148,7 +154,7 @@
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -183,6 +189,19 @@
       <b val="true"/>
       <sz val="14"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -252,7 +271,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -262,6 +281,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -273,6 +296,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -289,11 +316,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -301,7 +328,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,13 +353,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O4" activeCellId="0" sqref="O4:O15"/>
+      <selection pane="topLeft" activeCell="P17" activeCellId="0" sqref="P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.55078125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.55859375" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -343,16 +370,16 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -361,33 +388,39 @@
       <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>13</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>15</v>
@@ -405,146 +438,167 @@
         <v>19</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O4" s="10"/>
+      <c r="O4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="B5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O5" s="12"/>
+      <c r="F5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="4" t="s">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="I6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O6" s="12"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K7" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="12"/>
+      <c r="I7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -553,33 +607,39 @@
       <c r="G10" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="H10" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
+      <c r="B11" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
+      <c r="B12" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>15</v>
@@ -597,120 +657,140 @@
         <v>19</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="K12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="M12" s="9" t="s">
+      <c r="M12" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N12" s="9" t="s">
+      <c r="N12" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="O12" s="10"/>
+      <c r="O12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O13" s="12"/>
+      <c r="F13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="A14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="I14" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O14" s="12"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="O15" s="12"/>
+      <c r="I15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
